--- a/Data Analysis/Sensitivity Analysis 2015_02_06/Sensitivity Experiements.xlsx
+++ b/Data Analysis/Sensitivity Analysis 2015_02_06/Sensitivity Experiements.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="12560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="L9" sheetId="1" r:id="rId1"/>
     <sheet name="L18" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
   <si>
     <t>Experiment Condition</t>
   </si>
@@ -166,16 +166,47 @@
   </si>
   <si>
     <t>Running</t>
+  </si>
+  <si>
+    <t>Exp5</t>
+  </si>
+  <si>
+    <t>Exp6</t>
+  </si>
+  <si>
+    <t>Exp7</t>
+  </si>
+  <si>
+    <t>Exp8</t>
+  </si>
+  <si>
+    <t>done kinda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,8 +270,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -256,7 +295,15 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,14 +585,14 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.36328125" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1"/>
     <col min="4" max="4" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -838,16 +885,16 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -954,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -970,6 +1017,9 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -984,6 +1034,9 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -998,6 +1051,9 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -1012,6 +1068,9 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -1026,6 +1085,9 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -1038,7 +1100,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1052,7 +1117,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1066,7 +1137,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1100,7 +1174,13 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1114,7 +1194,13 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1128,7 +1214,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1142,7 +1234,13 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1229,6 +1327,7 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
